--- a/screener.xlsx
+++ b/screener.xlsx
@@ -1,24 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\stocks\pse-edge-parser\pse-edge-parser\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC45FEE-45B9-42E1-8833-9267AE27A3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="20Jul2021 145631" r:id="rId3" sheetId="1"/>
-    <sheet name="20Jul2021 145906" r:id="rId4" sheetId="2"/>
-    <sheet name="26Jul2021 214511" r:id="rId5" sheetId="3"/>
-    <sheet name="26Aug2021 165352" r:id="rId6" sheetId="4"/>
-    <sheet name="07Sep2021 210808" r:id="rId7" sheetId="5"/>
-    <sheet name="05Oct2021 223307" r:id="rId8" sheetId="6"/>
-    <sheet name="12Jan2024 104115" r:id="rId9" sheetId="7"/>
+    <sheet name="20Jul2021 145631" sheetId="1" r:id="rId1"/>
+    <sheet name="20Jul2021 145906" sheetId="2" r:id="rId2"/>
+    <sheet name="26Jul2021 214511" sheetId="3" r:id="rId3"/>
+    <sheet name="26Aug2021 165352" sheetId="4" r:id="rId4"/>
+    <sheet name="07Sep2021 210808" sheetId="5" r:id="rId5"/>
+    <sheet name="05Oct2021 223307" sheetId="6" r:id="rId6"/>
+    <sheet name="12Jan2024 152501" sheetId="8" r:id="rId7"/>
+    <sheet name="17Jan2024 175835" r:id="rId11" sheetId="9"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="609">
   <si>
     <t>Stock Name</t>
   </si>
@@ -1322,9 +1331,6 @@
     <t>1.82</t>
   </si>
   <si>
-    <t>3.20</t>
-  </si>
-  <si>
     <t>4.73</t>
   </si>
   <si>
@@ -1373,9 +1379,6 @@
     <t>1.74</t>
   </si>
   <si>
-    <t>0.89</t>
-  </si>
-  <si>
     <t>1.37</t>
   </si>
   <si>
@@ -1424,9 +1427,6 @@
     <t>JGS</t>
   </si>
   <si>
-    <t>40.65</t>
-  </si>
-  <si>
     <t>58.20</t>
   </si>
   <si>
@@ -1496,9 +1496,6 @@
     <t>RRHI</t>
   </si>
   <si>
-    <t>39.05</t>
-  </si>
-  <si>
     <t>59.50</t>
   </si>
   <si>
@@ -1514,9 +1511,6 @@
     <t>WLCON</t>
   </si>
   <si>
-    <t>23.50</t>
-  </si>
-  <si>
     <t>34.45</t>
   </si>
   <si>
@@ -1524,230 +1518,601 @@
   </si>
   <si>
     <t>22.97</t>
+  </si>
+  <si>
+    <t>Arthaland Corporation</t>
+  </si>
+  <si>
+    <t>ALCO</t>
+  </si>
+  <si>
+    <t>0.420</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.350</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>0.270</t>
+  </si>
+  <si>
+    <t>1.100</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>4.37</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>House of Investments, Inc.</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>3.56</t>
+  </si>
+  <si>
+    <t>5.39</t>
+  </si>
+  <si>
+    <t>40.20</t>
+  </si>
+  <si>
+    <t>3.500</t>
+  </si>
+  <si>
+    <t>City &amp; Land Developers, Incorporated</t>
+  </si>
+  <si>
+    <t>LAND</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>Marcventures Holdings, Inc.</t>
+  </si>
+  <si>
+    <t>MARC</t>
+  </si>
+  <si>
+    <t>1.36</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>Makati Finance Corporation</t>
+  </si>
+  <si>
+    <t>MFIN</t>
+  </si>
+  <si>
+    <t>2.59</t>
+  </si>
+  <si>
+    <t>NiHAO Mineral Resources International, Inc.</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>0.60</t>
+  </si>
+  <si>
+    <t>0.450</t>
+  </si>
+  <si>
+    <t>Nickel Asia Corporation</t>
+  </si>
+  <si>
+    <t>NIKL</t>
+  </si>
+  <si>
+    <t>4.97</t>
+  </si>
+  <si>
+    <t>5.000</t>
+  </si>
+  <si>
+    <t>Philippine Racing Club, Inc.</t>
+  </si>
+  <si>
+    <t>PRC</t>
+  </si>
+  <si>
+    <t>4.80</t>
+  </si>
+  <si>
+    <t>7.29</t>
+  </si>
+  <si>
+    <t>4.88</t>
+  </si>
+  <si>
+    <t>4.86</t>
+  </si>
+  <si>
+    <t>2.41</t>
+  </si>
+  <si>
+    <t>0.425</t>
+  </si>
+  <si>
+    <t>38.95</t>
+  </si>
+  <si>
+    <t>Top Frontier Investment Holdings, Inc.</t>
+  </si>
+  <si>
+    <t>TFHI</t>
+  </si>
+  <si>
+    <t>103.00</t>
+  </si>
+  <si>
+    <t>148.00</t>
+  </si>
+  <si>
+    <t>83.15</t>
+  </si>
+  <si>
+    <t>98.67</t>
+  </si>
+  <si>
+    <t>Harbor Star Shipping Services, Inc.</t>
+  </si>
+  <si>
+    <t>TUGS</t>
+  </si>
+  <si>
+    <t>0.75</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>Altus Property Ventures, Inc.</t>
+  </si>
+  <si>
+    <t>APVI</t>
+  </si>
+  <si>
+    <t>8.99</t>
+  </si>
+  <si>
+    <t>12.88</t>
+  </si>
+  <si>
+    <t>8.60</t>
+  </si>
+  <si>
+    <t>8.59</t>
+  </si>
+  <si>
+    <t>3.27</t>
+  </si>
+  <si>
+    <t>4.71</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>Coal Asia Holdings Incorporated</t>
+  </si>
+  <si>
+    <t>COAL</t>
+  </si>
+  <si>
+    <t>0.158</t>
+  </si>
+  <si>
+    <t>0.229</t>
+  </si>
+  <si>
+    <t>0.100</t>
+  </si>
+  <si>
+    <t>0.153</t>
+  </si>
+  <si>
+    <t>3.200</t>
+  </si>
+  <si>
+    <t>0.275</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>8.87</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.0081</t>
+  </si>
+  <si>
+    <t>0.435</t>
+  </si>
+  <si>
+    <t>Roxas Holdings, Inc.</t>
+  </si>
+  <si>
+    <t>ROX</t>
+  </si>
+  <si>
+    <t>37.75</t>
+  </si>
+  <si>
+    <t>59.40</t>
+  </si>
+  <si>
+    <t>39.60</t>
+  </si>
+  <si>
+    <t>Synergy Grid &amp; Development Phils., Inc.</t>
+  </si>
+  <si>
+    <t>SGP</t>
+  </si>
+  <si>
+    <t>7.65</t>
+  </si>
+  <si>
+    <t>12.02</t>
+  </si>
+  <si>
+    <t>8.01</t>
+  </si>
+  <si>
+    <t>Seafront Resources Corporation</t>
+  </si>
+  <si>
+    <t>SPM</t>
+  </si>
+  <si>
+    <t>1.34</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>SP New Energy Corporation</t>
+  </si>
+  <si>
+    <t>SPNEC</t>
+  </si>
+  <si>
+    <t>3.48</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>United Paragon Mining Corporation</t>
+  </si>
+  <si>
+    <t>UPM</t>
+  </si>
+  <si>
+    <t>0.0040</t>
+  </si>
+  <si>
+    <t>0.0059</t>
+  </si>
+  <si>
+    <t>0.0038</t>
+  </si>
+  <si>
+    <t>0.0039</t>
+  </si>
+  <si>
+    <t>0.73</t>
+  </si>
+  <si>
+    <t>0.470</t>
+  </si>
+  <si>
+    <t>0.49</t>
+  </si>
+  <si>
+    <t>1.91</t>
+  </si>
+  <si>
+    <t>2.84</t>
+  </si>
+  <si>
+    <t>1.65</t>
+  </si>
+  <si>
+    <t>1.89</t>
+  </si>
+  <si>
+    <t>22.25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="50">
+  <fonts count="57" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1785,20 +2150,26 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="9ACD32"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9ACD32"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor rgb="9ACD32"/>
       </patternFill>
     </fill>
@@ -1815,102 +2186,418 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.171875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.2890625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.03515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.51953125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.12109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.0546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.59375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="6">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="7">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1933,7 +2620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1956,7 +2643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1979,7 +2666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2002,7 +2689,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2025,7 +2712,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2048,7 +2735,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -2071,7 +2758,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -2094,7 +2781,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -2117,7 +2804,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -2140,7 +2827,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -2163,7 +2850,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -2186,7 +2873,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -2209,7 +2896,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -2232,7 +2919,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -2255,7 +2942,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -2278,7 +2965,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -2301,7 +2988,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -2324,7 +3011,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -2347,7 +3034,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -2370,7 +3057,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -2393,7 +3080,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -2416,7 +3103,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>148</v>
       </c>
@@ -2439,7 +3126,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>153</v>
       </c>
@@ -2462,7 +3149,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>160</v>
       </c>
@@ -2485,7 +3172,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>166</v>
       </c>
@@ -2508,7 +3195,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>172</v>
       </c>
@@ -2531,7 +3218,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>178</v>
       </c>
@@ -2554,7 +3241,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>185</v>
       </c>
@@ -2577,7 +3264,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>189</v>
       </c>
@@ -2600,7 +3287,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>195</v>
       </c>
@@ -2623,7 +3310,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>198</v>
       </c>
@@ -2646,7 +3333,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -2669,7 +3356,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>211</v>
       </c>
@@ -2692,7 +3379,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>218</v>
       </c>
@@ -2715,7 +3402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>223</v>
       </c>
@@ -2738,7 +3425,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>229</v>
       </c>
@@ -2762,51 +3449,51 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.171875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.2890625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.03515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.51953125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.12109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.0546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.59375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="8">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="9">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="10">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="11">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="13">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="14">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2829,7 +3516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2852,7 +3539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -2875,7 +3562,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2898,7 +3585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2921,7 +3608,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2944,7 +3631,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -2967,7 +3654,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -2990,7 +3677,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -3013,7 +3700,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -3036,7 +3723,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -3059,7 +3746,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -3082,7 +3769,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -3105,7 +3792,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -3128,7 +3815,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -3151,7 +3838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>101</v>
       </c>
@@ -3174,7 +3861,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -3197,7 +3884,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>115</v>
       </c>
@@ -3220,7 +3907,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -3243,7 +3930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>128</v>
       </c>
@@ -3266,7 +3953,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>135</v>
       </c>
@@ -3289,7 +3976,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>141</v>
       </c>
@@ -3312,7 +3999,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>148</v>
       </c>
@@ -3335,7 +4022,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>153</v>
       </c>
@@ -3358,7 +4045,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>160</v>
       </c>
@@ -3381,7 +4068,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>166</v>
       </c>
@@ -3404,7 +4091,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>172</v>
       </c>
@@ -3427,7 +4114,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>178</v>
       </c>
@@ -3450,7 +4137,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>185</v>
       </c>
@@ -3473,7 +4160,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>189</v>
       </c>
@@ -3496,7 +4183,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>195</v>
       </c>
@@ -3519,7 +4206,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>198</v>
       </c>
@@ -3542,7 +4229,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -3565,7 +4252,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>211</v>
       </c>
@@ -3588,7 +4275,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>218</v>
       </c>
@@ -3611,7 +4298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>223</v>
       </c>
@@ -3634,7 +4321,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>229</v>
       </c>
@@ -3658,51 +4345,51 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="47.4296875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.2890625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.03515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.51953125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.12109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.0546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.59375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="47.453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="16">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="17">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="18">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="19">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="20">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="21">
+      <c r="G1" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3725,7 +4412,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>234</v>
       </c>
@@ -3748,7 +4435,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>241</v>
       </c>
@@ -3771,7 +4458,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>246</v>
       </c>
@@ -3794,7 +4481,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3817,7 +4504,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -3840,7 +4527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -3863,7 +4550,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -3886,7 +4573,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -3909,7 +4596,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>67</v>
       </c>
@@ -3932,7 +4619,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -3955,7 +4642,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -3978,7 +4665,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -4001,7 +4688,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>260</v>
       </c>
@@ -4024,7 +4711,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>122</v>
       </c>
@@ -4047,7 +4734,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>268</v>
       </c>
@@ -4070,7 +4757,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -4093,7 +4780,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>273</v>
       </c>
@@ -4116,7 +4803,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -4139,7 +4826,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -4162,7 +4849,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>172</v>
       </c>
@@ -4185,7 +4872,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>189</v>
       </c>
@@ -4208,7 +4895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>283</v>
       </c>
@@ -4231,7 +4918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>198</v>
       </c>
@@ -4254,7 +4941,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>218</v>
       </c>
@@ -4277,7 +4964,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -4301,51 +4988,51 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.328125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.2890625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.03515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.51953125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.12109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.0546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.59375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.36328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="22">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="23">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="24">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="25">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="26">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="27">
+      <c r="F1" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="28">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4368,7 +5055,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>246</v>
       </c>
@@ -4391,7 +5078,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -4414,7 +5101,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>294</v>
       </c>
@@ -4437,7 +5124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -4460,7 +5147,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -4483,7 +5170,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -4506,7 +5193,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -4529,7 +5216,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>85</v>
       </c>
@@ -4552,7 +5239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>307</v>
       </c>
@@ -4575,7 +5262,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -4598,7 +5285,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -4621,7 +5308,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>315</v>
       </c>
@@ -4644,7 +5331,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -4667,7 +5354,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>128</v>
       </c>
@@ -4690,7 +5377,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>135</v>
       </c>
@@ -4713,7 +5400,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>141</v>
       </c>
@@ -4736,7 +5423,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>323</v>
       </c>
@@ -4759,7 +5446,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -4782,7 +5469,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>331</v>
       </c>
@@ -4805,7 +5492,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>189</v>
       </c>
@@ -4828,7 +5515,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>283</v>
       </c>
@@ -4851,7 +5538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>340</v>
       </c>
@@ -4874,7 +5561,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>211</v>
       </c>
@@ -4897,7 +5584,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>218</v>
       </c>
@@ -4920,7 +5607,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>223</v>
       </c>
@@ -4943,7 +5630,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>347</v>
       </c>
@@ -4967,51 +5654,51 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.328125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.2890625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.03515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.51953125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.12109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.0546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.59375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.36328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="29">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="30">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="31">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="32">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="33">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="34">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="35">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -5034,7 +5721,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5057,7 +5744,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>294</v>
       </c>
@@ -5080,7 +5767,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -5103,7 +5790,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>67</v>
       </c>
@@ -5126,7 +5813,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -5149,7 +5836,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>307</v>
       </c>
@@ -5172,7 +5859,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>358</v>
       </c>
@@ -5195,7 +5882,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>122</v>
       </c>
@@ -5218,7 +5905,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>128</v>
       </c>
@@ -5241,7 +5928,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>135</v>
       </c>
@@ -5264,7 +5951,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>273</v>
       </c>
@@ -5287,7 +5974,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>153</v>
       </c>
@@ -5310,7 +5997,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>331</v>
       </c>
@@ -5333,7 +6020,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>185</v>
       </c>
@@ -5356,7 +6043,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>189</v>
       </c>
@@ -5379,7 +6066,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>340</v>
       </c>
@@ -5402,7 +6089,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>211</v>
       </c>
@@ -5425,7 +6112,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>370</v>
       </c>
@@ -5448,7 +6135,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>218</v>
       </c>
@@ -5471,7 +6158,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>347</v>
       </c>
@@ -5495,51 +6182,51 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.171875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.2890625" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.03515625" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.51953125" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.12109375" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.0546875" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.59375" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="36">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="37">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="38">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="39">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="40">
+      <c r="E1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="41">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="42">
+      <c r="G1" s="42" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -5562,7 +6249,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>294</v>
       </c>
@@ -5585,7 +6272,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -5608,7 +6295,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -5631,7 +6318,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>381</v>
       </c>
@@ -5654,7 +6341,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>388</v>
       </c>
@@ -5677,7 +6364,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -5700,7 +6387,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>307</v>
       </c>
@@ -5723,7 +6410,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -5746,7 +6433,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>397</v>
       </c>
@@ -5769,7 +6456,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -5792,7 +6479,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>268</v>
       </c>
@@ -5815,7 +6502,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -5838,7 +6525,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>141</v>
       </c>
@@ -5861,7 +6548,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>405</v>
       </c>
@@ -5884,7 +6571,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>411</v>
       </c>
@@ -5907,7 +6594,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>273</v>
       </c>
@@ -5930,7 +6617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>323</v>
       </c>
@@ -5953,7 +6640,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>153</v>
       </c>
@@ -5976,7 +6663,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>331</v>
       </c>
@@ -5999,7 +6686,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>421</v>
       </c>
@@ -6022,7 +6709,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>166</v>
       </c>
@@ -6045,7 +6732,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>172</v>
       </c>
@@ -6068,7 +6755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>211</v>
       </c>
@@ -6091,7 +6778,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>347</v>
       </c>
@@ -6115,13 +6802,681 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F2" t="s">
+        <v>502</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>431</v>
+      </c>
+      <c r="B3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C3" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" t="s">
+        <v>433</v>
+      </c>
+      <c r="E3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>503</v>
+      </c>
+      <c r="D4" t="s">
+        <v>434</v>
+      </c>
+      <c r="E4" t="s">
+        <v>435</v>
+      </c>
+      <c r="F4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B5" t="s">
+        <v>438</v>
+      </c>
+      <c r="C5" t="s">
+        <v>504</v>
+      </c>
+      <c r="D5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F5" t="s">
+        <v>441</v>
+      </c>
+      <c r="G5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B6" t="s">
+        <v>443</v>
+      </c>
+      <c r="C6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" t="s">
+        <v>444</v>
+      </c>
+      <c r="E6" t="s">
+        <v>445</v>
+      </c>
+      <c r="F6" t="s">
+        <v>446</v>
+      </c>
+      <c r="G6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B7" t="s">
+        <v>448</v>
+      </c>
+      <c r="C7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D7" t="s">
+        <v>449</v>
+      </c>
+      <c r="E7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D8" t="s">
+        <v>508</v>
+      </c>
+      <c r="E8" t="s">
+        <v>362</v>
+      </c>
+      <c r="F8" t="s">
+        <v>401</v>
+      </c>
+      <c r="G8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D9" t="s">
+        <v>450</v>
+      </c>
+      <c r="E9" t="s">
+        <v>451</v>
+      </c>
+      <c r="F9" t="s">
+        <v>319</v>
+      </c>
+      <c r="G9" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>452</v>
+      </c>
+      <c r="B10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C10" t="s">
+        <v>454</v>
+      </c>
+      <c r="D10" t="s">
+        <v>455</v>
+      </c>
+      <c r="E10" t="s">
+        <v>456</v>
+      </c>
+      <c r="F10" t="s">
+        <v>457</v>
+      </c>
+      <c r="G10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D11" t="s">
+        <v>513</v>
+      </c>
+      <c r="E11" t="s">
+        <v>436</v>
+      </c>
+      <c r="F11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>458</v>
+      </c>
+      <c r="B12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D12" t="s">
+        <v>460</v>
+      </c>
+      <c r="E12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F12" t="s">
+        <v>461</v>
+      </c>
+      <c r="G12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>462</v>
+      </c>
+      <c r="B13" t="s">
+        <v>463</v>
+      </c>
+      <c r="C13" t="s">
+        <v>506</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>225</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>464</v>
+      </c>
+      <c r="B14" t="s">
+        <v>465</v>
+      </c>
+      <c r="C14" t="s">
+        <v>514</v>
+      </c>
+      <c r="D14" t="s">
+        <v>466</v>
+      </c>
+      <c r="E14" t="s">
+        <v>467</v>
+      </c>
+      <c r="F14" t="s">
+        <v>468</v>
+      </c>
+      <c r="G14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>516</v>
+      </c>
+      <c r="B15" t="s">
+        <v>517</v>
+      </c>
+      <c r="C15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E15" t="s">
+        <v>518</v>
+      </c>
+      <c r="F15" t="s">
+        <v>519</v>
+      </c>
+      <c r="G15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>520</v>
+      </c>
+      <c r="B16" t="s">
+        <v>521</v>
+      </c>
+      <c r="C16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" t="s">
+        <v>522</v>
+      </c>
+      <c r="E16" t="s">
+        <v>523</v>
+      </c>
+      <c r="F16" t="s">
+        <v>319</v>
+      </c>
+      <c r="G16" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>524</v>
+      </c>
+      <c r="B17" t="s">
+        <v>525</v>
+      </c>
+      <c r="C17" t="s">
+        <v>449</v>
+      </c>
+      <c r="D17" t="s">
+        <v>526</v>
+      </c>
+      <c r="E17" t="s">
+        <v>313</v>
+      </c>
+      <c r="F17" t="s">
+        <v>343</v>
+      </c>
+      <c r="G17" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>469</v>
+      </c>
+      <c r="B18" t="s">
+        <v>470</v>
+      </c>
+      <c r="C18" t="s">
+        <v>471</v>
+      </c>
+      <c r="D18" t="s">
+        <v>472</v>
+      </c>
+      <c r="E18" t="s">
+        <v>473</v>
+      </c>
+      <c r="F18" t="s">
+        <v>474</v>
+      </c>
+      <c r="G18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>527</v>
+      </c>
+      <c r="B19" t="s">
+        <v>528</v>
+      </c>
+      <c r="C19" t="s">
+        <v>529</v>
+      </c>
+      <c r="D19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" t="s">
+        <v>530</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>531</v>
+      </c>
+      <c r="B20" t="s">
+        <v>532</v>
+      </c>
+      <c r="C20" t="s">
+        <v>410</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>533</v>
+      </c>
+      <c r="F20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G20" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>475</v>
+      </c>
+      <c r="B21" t="s">
+        <v>476</v>
+      </c>
+      <c r="C21" t="s">
+        <v>477</v>
+      </c>
+      <c r="D21" t="s">
+        <v>478</v>
+      </c>
+      <c r="E21" t="s">
+        <v>479</v>
+      </c>
+      <c r="F21" t="s">
+        <v>480</v>
+      </c>
+      <c r="G21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>535</v>
+      </c>
+      <c r="B22" t="s">
+        <v>536</v>
+      </c>
+      <c r="C22" t="s">
+        <v>537</v>
+      </c>
+      <c r="D22" t="s">
+        <v>538</v>
+      </c>
+      <c r="E22" t="s">
+        <v>539</v>
+      </c>
+      <c r="F22" t="s">
+        <v>540</v>
+      </c>
+      <c r="G22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" t="s">
+        <v>541</v>
+      </c>
+      <c r="D23" t="s">
+        <v>481</v>
+      </c>
+      <c r="E23" t="s">
+        <v>482</v>
+      </c>
+      <c r="F23" t="s">
+        <v>483</v>
+      </c>
+      <c r="G23" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" t="s">
+        <v>542</v>
+      </c>
+      <c r="D24" t="s">
+        <v>484</v>
+      </c>
+      <c r="E24" t="s">
+        <v>485</v>
+      </c>
+      <c r="F24" t="s">
+        <v>486</v>
+      </c>
+      <c r="G24" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>487</v>
+      </c>
+      <c r="B25" t="s">
+        <v>488</v>
+      </c>
+      <c r="C25" t="s">
+        <v>543</v>
+      </c>
+      <c r="D25" t="s">
+        <v>489</v>
+      </c>
+      <c r="E25" t="s">
+        <v>490</v>
+      </c>
+      <c r="F25" t="s">
+        <v>491</v>
+      </c>
+      <c r="G25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>544</v>
+      </c>
+      <c r="B26" t="s">
+        <v>545</v>
+      </c>
+      <c r="C26" t="s">
+        <v>546</v>
+      </c>
+      <c r="D26" t="s">
+        <v>547</v>
+      </c>
+      <c r="E26" t="s">
+        <v>548</v>
+      </c>
+      <c r="F26" t="s">
+        <v>549</v>
+      </c>
+      <c r="G26" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>550</v>
+      </c>
+      <c r="B27" t="s">
+        <v>551</v>
+      </c>
+      <c r="C27" t="s">
+        <v>290</v>
+      </c>
+      <c r="D27" t="s">
+        <v>306</v>
+      </c>
+      <c r="E27" t="s">
+        <v>461</v>
+      </c>
+      <c r="F27" t="s">
+        <v>552</v>
+      </c>
+      <c r="G27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="50" t="s">
+        <v>492</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>493</v>
+      </c>
+      <c r="C28" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="50" t="s">
+        <v>494</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>495</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>496</v>
+      </c>
+      <c r="G28" s="50" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6137,394 +7492,647 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="43">
+      <c r="A1" t="s" s="51">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="44">
+      <c r="B1" t="s" s="52">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="45">
+      <c r="C1" t="s" s="53">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="46">
+      <c r="D1" t="s" s="54">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="47">
+      <c r="E1" t="s" s="55">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="48">
+      <c r="F1" t="s" s="56">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="49">
+      <c r="G1" t="s" s="57">
         <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>431</v>
+        <v>497</v>
       </c>
       <c r="B2" t="s">
-        <v>432</v>
+        <v>498</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>485</v>
       </c>
       <c r="D2" t="s">
-        <v>433</v>
+        <v>529</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>501</v>
       </c>
       <c r="F2" t="s">
-        <v>253</v>
+        <v>553</v>
       </c>
       <c r="G2" t="s">
-        <v>165</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>554</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>555</v>
       </c>
       <c r="C3" t="s">
-        <v>434</v>
+        <v>556</v>
       </c>
       <c r="D3" t="s">
-        <v>435</v>
+        <v>557</v>
       </c>
       <c r="E3" t="s">
-        <v>436</v>
+        <v>558</v>
       </c>
       <c r="F3" t="s">
-        <v>437</v>
+        <v>559</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="C4" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E4" t="s">
-        <v>441</v>
+        <v>296</v>
       </c>
       <c r="F4" t="s">
-        <v>442</v>
+        <v>253</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>444</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>560</v>
       </c>
       <c r="D5" t="s">
-        <v>445</v>
+        <v>561</v>
       </c>
       <c r="E5" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="F5" t="s">
-        <v>447</v>
+        <v>562</v>
       </c>
       <c r="G5" t="s">
-        <v>355</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>448</v>
+        <v>563</v>
       </c>
       <c r="B6" t="s">
-        <v>449</v>
+        <v>564</v>
       </c>
       <c r="C6" t="s">
-        <v>338</v>
+        <v>565</v>
       </c>
       <c r="D6" t="s">
-        <v>450</v>
+        <v>566</v>
       </c>
       <c r="E6" t="s">
-        <v>180</v>
+        <v>567</v>
       </c>
       <c r="F6" t="s">
-        <v>338</v>
+        <v>568</v>
       </c>
       <c r="G6" t="s">
-        <v>100</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>437</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>438</v>
       </c>
       <c r="C7" t="s">
-        <v>451</v>
+        <v>570</v>
       </c>
       <c r="D7" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="E7" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="F7" t="s">
-        <v>319</v>
+        <v>441</v>
       </c>
       <c r="G7" t="s">
-        <v>292</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="B8" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C8" t="s">
-        <v>456</v>
+        <v>571</v>
       </c>
       <c r="D8" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="E8" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="F8" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="G8" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B9" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C9" t="s">
-        <v>207</v>
+        <v>572</v>
       </c>
       <c r="D9" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E9" t="s">
-        <v>271</v>
+        <v>456</v>
       </c>
       <c r="F9" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="G9" t="s">
-        <v>321</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>464</v>
+        <v>510</v>
       </c>
       <c r="B10" t="s">
-        <v>465</v>
+        <v>511</v>
       </c>
       <c r="C10" t="s">
-        <v>296</v>
+        <v>430</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>513</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>436</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C11" t="s">
-        <v>468</v>
+        <v>207</v>
       </c>
       <c r="D11" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="E11" t="s">
-        <v>470</v>
+        <v>271</v>
       </c>
       <c r="F11" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="B12" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="C12" t="s">
-        <v>474</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>475</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>476</v>
+        <v>573</v>
       </c>
       <c r="F12" t="s">
-        <v>477</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="B13" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="C13" t="s">
-        <v>480</v>
+        <v>383</v>
       </c>
       <c r="D13" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="E13" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="F13" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="G13" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>516</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>517</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>290</v>
       </c>
       <c r="D14" t="s">
-        <v>484</v>
+        <v>342</v>
       </c>
       <c r="E14" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="F14" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="G14" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>178</v>
+        <v>520</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>521</v>
       </c>
       <c r="C15" t="s">
-        <v>206</v>
+        <v>130</v>
       </c>
       <c r="D15" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="E15" t="s">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="F15" t="s">
-        <v>489</v>
+        <v>319</v>
       </c>
       <c r="G15" t="s">
-        <v>100</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="B16" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C16" t="s">
-        <v>492</v>
+        <v>574</v>
       </c>
       <c r="D16" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="E16" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="F16" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" t="s">
+        <v>575</v>
+      </c>
+      <c r="D17" t="s">
+        <v>484</v>
+      </c>
+      <c r="E17" t="s">
+        <v>485</v>
+      </c>
+      <c r="F17" t="s">
+        <v>486</v>
+      </c>
+      <c r="G17" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>576</v>
+      </c>
+      <c r="B18" t="s">
+        <v>577</v>
+      </c>
+      <c r="C18" t="s">
+        <v>484</v>
+      </c>
+      <c r="D18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E18" t="s">
+        <v>286</v>
+      </c>
+      <c r="F18" t="s">
+        <v>523</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>487</v>
+      </c>
+      <c r="B19" t="s">
+        <v>488</v>
+      </c>
+      <c r="C19" t="s">
+        <v>578</v>
+      </c>
+      <c r="D19" t="s">
+        <v>579</v>
+      </c>
+      <c r="E19" t="s">
+        <v>490</v>
+      </c>
+      <c r="F19" t="s">
+        <v>580</v>
+      </c>
+      <c r="G19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>581</v>
+      </c>
+      <c r="B20" t="s">
+        <v>582</v>
+      </c>
+      <c r="C20" t="s">
+        <v>583</v>
+      </c>
+      <c r="D20" t="s">
+        <v>584</v>
+      </c>
+      <c r="E20" t="s">
+        <v>272</v>
+      </c>
+      <c r="F20" t="s">
+        <v>585</v>
+      </c>
+      <c r="G20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>586</v>
+      </c>
+      <c r="B21" t="s">
+        <v>587</v>
+      </c>
+      <c r="C21" t="s">
+        <v>588</v>
+      </c>
+      <c r="D21" t="s">
+        <v>482</v>
+      </c>
+      <c r="E21" t="s">
+        <v>250</v>
+      </c>
+      <c r="F21" t="s">
+        <v>589</v>
+      </c>
+      <c r="G21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>590</v>
+      </c>
+      <c r="B22" t="s">
+        <v>591</v>
+      </c>
+      <c r="C22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D22" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" t="s">
+        <v>377</v>
+      </c>
+      <c r="F22" t="s">
+        <v>278</v>
+      </c>
+      <c r="G22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>370</v>
+      </c>
+      <c r="B23" t="s">
+        <v>371</v>
+      </c>
+      <c r="C23" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" t="s">
+        <v>592</v>
+      </c>
+      <c r="E23" t="s">
+        <v>593</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>544</v>
+      </c>
+      <c r="B24" t="s">
+        <v>545</v>
+      </c>
+      <c r="C24" t="s">
+        <v>594</v>
+      </c>
+      <c r="D24" t="s">
+        <v>547</v>
+      </c>
+      <c r="E24" t="s">
+        <v>548</v>
+      </c>
+      <c r="F24" t="s">
+        <v>549</v>
+      </c>
+      <c r="G24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>595</v>
+      </c>
+      <c r="B25" t="s">
+        <v>596</v>
+      </c>
+      <c r="C25" t="s">
+        <v>597</v>
+      </c>
+      <c r="D25" t="s">
+        <v>598</v>
+      </c>
+      <c r="E25" t="s">
+        <v>599</v>
+      </c>
+      <c r="F25" t="s">
+        <v>600</v>
+      </c>
+      <c r="G25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>218</v>
+      </c>
+      <c r="B26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" t="s">
+        <v>601</v>
+      </c>
+      <c r="E26" t="s">
+        <v>602</v>
+      </c>
+      <c r="F26" t="s">
+        <v>603</v>
+      </c>
+      <c r="G26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C27" t="s">
+        <v>604</v>
+      </c>
+      <c r="D27" t="s">
+        <v>605</v>
+      </c>
+      <c r="E27" t="s">
+        <v>606</v>
+      </c>
+      <c r="F27" t="s">
+        <v>607</v>
+      </c>
+      <c r="G27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>492</v>
+      </c>
+      <c r="B28" t="s">
+        <v>493</v>
+      </c>
+      <c r="C28" t="s">
+        <v>608</v>
+      </c>
+      <c r="D28" t="s">
+        <v>494</v>
+      </c>
+      <c r="E28" t="s">
+        <v>495</v>
+      </c>
+      <c r="F28" t="s">
         <v>496</v>
       </c>
-      <c r="B17" t="s">
-        <v>497</v>
-      </c>
-      <c r="C17" t="s">
-        <v>498</v>
-      </c>
-      <c r="D17" t="s">
-        <v>499</v>
-      </c>
-      <c r="E17" t="s">
-        <v>500</v>
-      </c>
-      <c r="F17" t="s">
-        <v>501</v>
-      </c>
-      <c r="G17" t="s">
-        <v>194</v>
+      <c r="G28" t="s">
+        <v>569</v>
       </c>
     </row>
   </sheetData>

--- a/screener.xlsx
+++ b/screener.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\stocks\pse-edge-parser\pse-edge-parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC45FEE-45B9-42E1-8833-9267AE27A3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A913ED93-E390-42A1-8964-94FC87C0C235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20Jul2021 145631" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="07Sep2021 210808" sheetId="5" r:id="rId5"/>
     <sheet name="05Oct2021 223307" sheetId="6" r:id="rId6"/>
     <sheet name="12Jan2024 152501" sheetId="8" r:id="rId7"/>
-    <sheet name="17Jan2024 175835" r:id="rId11" sheetId="9"/>
+    <sheet name="17Jan2024 175835" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1860,7 +1860,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="57" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2115,42 +2114,42 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2166,11 +2165,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="9ACD32"/>
       </patternFill>
     </fill>
   </fills>
@@ -2238,13 +2232,13 @@
     <xf numFmtId="0" fontId="48" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="49" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="51" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="53" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2558,20 +2552,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E97AE7-F84A-4849-9A35-A9D443383F85}">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="true"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -3454,20 +3448,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00CAAE2-FF30-49A4-AB3A-10292EE50736}">
   <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="true"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -4350,20 +4344,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9D6AB4C-27C9-42C6-B47E-0E04B430DDAA}">
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="47.453125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="true"/>
+    <col min="1" max="1" width="47.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -4993,20 +4987,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA771612-90F7-4560-A8F7-E1955021629B}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.36328125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="true"/>
+    <col min="1" max="1" width="45.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -5659,20 +5653,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48FCE578-B332-4279-BECA-3F9F90EF2B7F}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="45.36328125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="true"/>
+    <col min="1" max="1" width="45.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -6187,20 +6181,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3BBC6CC-06FB-4CBF-B04D-40CED39909CB}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="true"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -6807,22 +6801,22 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6290E237-E05B-4E17-AC6E-C066EADF9C8F}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="false"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -7474,47 +7468,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A55134-E437-4278-B431-3266EED00910}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.2890625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.03515625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="13.51953125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="19.0546875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="26.59375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="51">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="52">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="53">
+      <c r="C1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="54">
+      <c r="D1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="55">
+      <c r="E1" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="56">
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="57">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>497</v>
       </c>
@@ -7537,7 +7533,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>554</v>
       </c>
@@ -7560,7 +7556,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>431</v>
       </c>
@@ -7583,7 +7579,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -7606,7 +7602,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>563</v>
       </c>
@@ -7629,7 +7625,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>437</v>
       </c>
@@ -7652,7 +7648,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>442</v>
       </c>
@@ -7675,7 +7671,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>452</v>
       </c>
@@ -7698,7 +7694,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>510</v>
       </c>
@@ -7721,7 +7717,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>458</v>
       </c>
@@ -7744,7 +7740,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -7767,7 +7763,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>464</v>
       </c>
@@ -7790,7 +7786,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>516</v>
       </c>
@@ -7813,7 +7809,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>520</v>
       </c>
@@ -7836,7 +7832,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>475</v>
       </c>
@@ -7859,7 +7855,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>178</v>
       </c>
@@ -7882,7 +7878,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>576</v>
       </c>
@@ -7905,7 +7901,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>487</v>
       </c>
@@ -7928,7 +7924,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>581</v>
       </c>
@@ -7951,7 +7947,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>586</v>
       </c>
@@ -7974,7 +7970,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>590</v>
       </c>
@@ -7997,7 +7993,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>370</v>
       </c>
@@ -8020,7 +8016,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>544</v>
       </c>
@@ -8043,7 +8039,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>595</v>
       </c>
@@ -8066,7 +8062,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>218</v>
       </c>
@@ -8089,7 +8085,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>141</v>
       </c>
@@ -8112,30 +8108,30 @@
         <v>267</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="s">
+    <row r="28" spans="1:7" s="50" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="50" t="s">
         <v>492</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="50" t="s">
         <v>493</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="50" t="s">
         <v>608</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="50" t="s">
         <v>494</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="50" t="s">
         <v>495</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="50" t="s">
         <v>496</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="50" t="s">
         <v>569</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/screener.xlsx
+++ b/screener.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\stocks\pse-edge-parser\pse-edge-parser\"/>
     </mc:Choice>
@@ -21,13 +21,14 @@
     <sheet name="05Oct2021 223307" sheetId="6" r:id="rId6"/>
     <sheet name="12Jan2024 152501" sheetId="8" r:id="rId7"/>
     <sheet name="17Jan2024 175835" sheetId="9" r:id="rId8"/>
+    <sheet name="06Feb2024 152311" r:id="rId12" sheetId="10"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1645" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="667">
   <si>
     <t>Stock Name</t>
   </si>
@@ -1854,13 +1855,188 @@
   </si>
   <si>
     <t>22.25</t>
+  </si>
+  <si>
+    <t>Atok-Big Wedge Co., Inc.</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>4.70</t>
+  </si>
+  <si>
+    <t>7.40</t>
+  </si>
+  <si>
+    <t>4.40</t>
+  </si>
+  <si>
+    <t>4.93</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>APC Group, Inc.</t>
+  </si>
+  <si>
+    <t>APC</t>
+  </si>
+  <si>
+    <t>0.222</t>
+  </si>
+  <si>
+    <t>0.203</t>
+  </si>
+  <si>
+    <t>Asia United Bank Corporation</t>
+  </si>
+  <si>
+    <t>AUB</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>53.90</t>
+  </si>
+  <si>
+    <t>35.93</t>
+  </si>
+  <si>
+    <t>59.45</t>
+  </si>
+  <si>
+    <t>29.05</t>
+  </si>
+  <si>
+    <t>39.63</t>
+  </si>
+  <si>
+    <t>0.064</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>0.253</t>
+  </si>
+  <si>
+    <t>8.89</t>
+  </si>
+  <si>
+    <t>GMA Holdings, Inc.</t>
+  </si>
+  <si>
+    <t>GMAP</t>
+  </si>
+  <si>
+    <t>12.70</t>
+  </si>
+  <si>
+    <t>7.34</t>
+  </si>
+  <si>
+    <t>8.47</t>
+  </si>
+  <si>
+    <t>0.091</t>
+  </si>
+  <si>
+    <t>0.093</t>
+  </si>
+  <si>
+    <t>Petron Corporation</t>
+  </si>
+  <si>
+    <t>PCOR</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>Philippine Realty and Holdings Corporation</t>
+  </si>
+  <si>
+    <t>RLT</t>
+  </si>
+  <si>
+    <t>0.150</t>
+  </si>
+  <si>
+    <t>0.235</t>
+  </si>
+  <si>
+    <t>0.119</t>
+  </si>
+  <si>
+    <t>0.157</t>
+  </si>
+  <si>
+    <t>1.35</t>
+  </si>
+  <si>
+    <t>3.46</t>
+  </si>
+  <si>
+    <t>2.31</t>
+  </si>
+  <si>
+    <t>0.78</t>
+  </si>
+  <si>
+    <t>Victorias Milling Company, Inc.</t>
+  </si>
+  <si>
+    <t>VMC</t>
+  </si>
+  <si>
+    <t>3.80</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>2.64</t>
+  </si>
+  <si>
+    <t>1.76</t>
+  </si>
+  <si>
+    <t>22.30</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>22.67</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>0.066</t>
+  </si>
+  <si>
+    <t>0.087</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="57" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="64" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2148,8 +2324,43 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2167,6 +2378,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="9ACD32"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2180,7 +2396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2239,6 +2455,13 @@
     <xf numFmtId="0" fontId="54" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="57" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="2" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2559,13 +2782,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -3444,6 +3667,580 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="41.69140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.2890625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.03515625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.51953125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="19.0546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="26.59375" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="58">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="59">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="60">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="61">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="62">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="63">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B2" t="s">
+        <v>610</v>
+      </c>
+      <c r="C2" t="s">
+        <v>611</v>
+      </c>
+      <c r="D2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>616</v>
+      </c>
+      <c r="B3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C3" t="s">
+        <v>618</v>
+      </c>
+      <c r="D3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E3" t="s">
+        <v>619</v>
+      </c>
+      <c r="F3" t="s">
+        <v>233</v>
+      </c>
+      <c r="G3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" t="s">
+        <v>433</v>
+      </c>
+      <c r="E4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>620</v>
+      </c>
+      <c r="B5" t="s">
+        <v>621</v>
+      </c>
+      <c r="C5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D5" t="s">
+        <v>623</v>
+      </c>
+      <c r="E5" t="s">
+        <v>326</v>
+      </c>
+      <c r="F5" t="s">
+        <v>624</v>
+      </c>
+      <c r="G5" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" t="s">
+        <v>625</v>
+      </c>
+      <c r="E6" t="s">
+        <v>626</v>
+      </c>
+      <c r="F6" t="s">
+        <v>627</v>
+      </c>
+      <c r="G6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>628</v>
+      </c>
+      <c r="D7" t="s">
+        <v>567</v>
+      </c>
+      <c r="E7" t="s">
+        <v>629</v>
+      </c>
+      <c r="F7" t="s">
+        <v>630</v>
+      </c>
+      <c r="G7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>437</v>
+      </c>
+      <c r="B8" t="s">
+        <v>438</v>
+      </c>
+      <c r="C8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D8" t="s">
+        <v>263</v>
+      </c>
+      <c r="E8" t="s">
+        <v>440</v>
+      </c>
+      <c r="F8" t="s">
+        <v>631</v>
+      </c>
+      <c r="G8" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>444</v>
+      </c>
+      <c r="E9" t="s">
+        <v>445</v>
+      </c>
+      <c r="F9" t="s">
+        <v>446</v>
+      </c>
+      <c r="G9" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>307</v>
+      </c>
+      <c r="B10" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" t="s">
+        <v>362</v>
+      </c>
+      <c r="D10" t="s">
+        <v>361</v>
+      </c>
+      <c r="E10" t="s">
+        <v>362</v>
+      </c>
+      <c r="F10" t="s">
+        <v>362</v>
+      </c>
+      <c r="G10" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>452</v>
+      </c>
+      <c r="B11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C11" t="s">
+        <v>632</v>
+      </c>
+      <c r="D11" t="s">
+        <v>455</v>
+      </c>
+      <c r="E11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F11" t="s">
+        <v>457</v>
+      </c>
+      <c r="G11" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>633</v>
+      </c>
+      <c r="B12" t="s">
+        <v>634</v>
+      </c>
+      <c r="C12" t="s">
+        <v>558</v>
+      </c>
+      <c r="D12" t="s">
+        <v>635</v>
+      </c>
+      <c r="E12" t="s">
+        <v>636</v>
+      </c>
+      <c r="F12" t="s">
+        <v>637</v>
+      </c>
+      <c r="G12" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>469</v>
+      </c>
+      <c r="B13" t="s">
+        <v>470</v>
+      </c>
+      <c r="C13" t="s">
+        <v>638</v>
+      </c>
+      <c r="D13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E13" t="s">
+        <v>473</v>
+      </c>
+      <c r="F13" t="s">
+        <v>639</v>
+      </c>
+      <c r="G13" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>475</v>
+      </c>
+      <c r="B14" t="s">
+        <v>476</v>
+      </c>
+      <c r="C14" t="s">
+        <v>477</v>
+      </c>
+      <c r="D14" t="s">
+        <v>478</v>
+      </c>
+      <c r="E14" t="s">
+        <v>479</v>
+      </c>
+      <c r="F14" t="s">
+        <v>480</v>
+      </c>
+      <c r="G14" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>640</v>
+      </c>
+      <c r="B15" t="s">
+        <v>641</v>
+      </c>
+      <c r="C15" t="s">
+        <v>560</v>
+      </c>
+      <c r="D15" t="s">
+        <v>611</v>
+      </c>
+      <c r="E15" t="s">
+        <v>642</v>
+      </c>
+      <c r="F15" t="s">
+        <v>643</v>
+      </c>
+      <c r="G15" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>644</v>
+      </c>
+      <c r="B16" t="s">
+        <v>645</v>
+      </c>
+      <c r="C16" t="s">
+        <v>646</v>
+      </c>
+      <c r="D16" t="s">
+        <v>647</v>
+      </c>
+      <c r="E16" t="s">
+        <v>648</v>
+      </c>
+      <c r="F16" t="s">
+        <v>649</v>
+      </c>
+      <c r="G16" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>586</v>
+      </c>
+      <c r="B17" t="s">
+        <v>587</v>
+      </c>
+      <c r="C17" t="s">
+        <v>650</v>
+      </c>
+      <c r="D17" t="s">
+        <v>482</v>
+      </c>
+      <c r="E17" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" t="s">
+        <v>589</v>
+      </c>
+      <c r="G17" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>590</v>
+      </c>
+      <c r="B18" t="s">
+        <v>591</v>
+      </c>
+      <c r="C18" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" t="s">
+        <v>377</v>
+      </c>
+      <c r="F18" t="s">
+        <v>278</v>
+      </c>
+      <c r="G18" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" t="s">
+        <v>371</v>
+      </c>
+      <c r="C19" t="s">
+        <v>483</v>
+      </c>
+      <c r="D19" t="s">
+        <v>651</v>
+      </c>
+      <c r="E19" t="s">
+        <v>593</v>
+      </c>
+      <c r="F19" t="s">
+        <v>652</v>
+      </c>
+      <c r="G19" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>550</v>
+      </c>
+      <c r="B20" t="s">
+        <v>551</v>
+      </c>
+      <c r="C20" t="s">
+        <v>653</v>
+      </c>
+      <c r="D20" t="s">
+        <v>306</v>
+      </c>
+      <c r="E20" t="s">
+        <v>461</v>
+      </c>
+      <c r="F20" t="s">
+        <v>552</v>
+      </c>
+      <c r="G20" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>654</v>
+      </c>
+      <c r="B21" t="s">
+        <v>655</v>
+      </c>
+      <c r="C21" t="s">
+        <v>126</v>
+      </c>
+      <c r="D21" t="s">
+        <v>656</v>
+      </c>
+      <c r="E21" t="s">
+        <v>657</v>
+      </c>
+      <c r="F21" t="s">
+        <v>658</v>
+      </c>
+      <c r="G21" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>141</v>
+      </c>
+      <c r="B22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" t="s">
+        <v>659</v>
+      </c>
+      <c r="E22" t="s">
+        <v>606</v>
+      </c>
+      <c r="F22" t="s">
+        <v>660</v>
+      </c>
+      <c r="G22" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>492</v>
+      </c>
+      <c r="B23" t="s">
+        <v>493</v>
+      </c>
+      <c r="C23" t="s">
+        <v>661</v>
+      </c>
+      <c r="D23" t="s">
+        <v>662</v>
+      </c>
+      <c r="E23" t="s">
+        <v>495</v>
+      </c>
+      <c r="F23" t="s">
+        <v>663</v>
+      </c>
+      <c r="G23" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" t="s">
+        <v>230</v>
+      </c>
+      <c r="C24" t="s">
+        <v>664</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" t="s">
+        <v>665</v>
+      </c>
+      <c r="F24" t="s">
+        <v>666</v>
+      </c>
+      <c r="G24" t="s">
+        <v>615</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -3455,13 +4252,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -4351,13 +5148,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="47.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="47.453125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -4994,13 +5791,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.36328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -5660,13 +6457,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="45.36328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -6188,13 +6985,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -6810,13 +7607,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
@@ -7478,13 +8275,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="52.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="52.1796875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.26953125" collapsed="false"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.0" collapsed="false"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="13.54296875" collapsed="false"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.08984375" collapsed="false"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.08984375" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.6328125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
